--- a/lixiao/summary_2024-2/assess_绩效+软性考核表.xlsx
+++ b/lixiao/summary_2024-2/assess_绩效+软性考核表.xlsx
@@ -2183,17 +2183,17 @@
       </c>
       <c r="C7" s="23" t="inlineStr">
         <is>
-          <t>N2023121805</t>
+          <t>黎文华订单</t>
         </is>
       </c>
       <c r="D7" s="23" t="inlineStr">
         <is>
-          <t>其他业务</t>
+          <t/>
         </is>
       </c>
       <c r="E7" s="37" t="inlineStr">
         <is>
-          <t>无</t>
+          <t/>
         </is>
       </c>
       <c r="F7" s="23">
@@ -2201,105 +2201,345 @@
       </c>
       <c r="G7" s="38" t="inlineStr">
         <is>
+          <t>菌群+对应代谢产物介导+机制研究</t>
+        </is>
+      </c>
+      <c r="H7" s="39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I7" s="23" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="J7" s="48" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K7" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="23" t="inlineStr">
+        <is>
+          <t>黄礼闯</t>
+        </is>
+      </c>
+      <c r="B8" s="23">
+        <v>2</v>
+      </c>
+      <c r="C8" s="23" t="inlineStr">
+        <is>
+          <t>N2023121805</t>
+        </is>
+      </c>
+      <c r="D8" s="23" t="inlineStr">
+        <is>
+          <t>其他业务</t>
+        </is>
+      </c>
+      <c r="E8" s="37" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F8" s="23">
+        <v>1</v>
+      </c>
+      <c r="G8" s="38" t="inlineStr">
+        <is>
           <t>网络药理学+Mandenol与piezo1分子对接</t>
         </is>
       </c>
-      <c r="H7" s="39" t="inlineStr">
+      <c r="H8" s="39" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="I7" s="23" t="inlineStr">
+      <c r="I8" s="23" t="inlineStr">
         <is>
           <t>完成</t>
         </is>
       </c>
-      <c r="J7" s="48" t="inlineStr">
+      <c r="J8" s="23" t="inlineStr">
         <is>
           <t>(1) 网络药理学; (2) 预测化合物靶点; (3) 获取疾病或条件相关的基因集:Genecards; (4) 疾病相关基因集:PharmGKB 数据库挖掘; (5) 疾病相关基因集:DisGeNet 数据库挖掘; (6) 调控该基因的相关转录因子 (TF) 数据获取; (7) 富集分析; (8) 全自动批量分子对接</t>
         </is>
       </c>
-      <c r="K7" s="23">
+      <c r="K8" s="23">
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-    </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="23"/>
+      <c r="A9" s="23" t="inlineStr">
+        <is>
+          <t>黄礼闯</t>
+        </is>
+      </c>
+      <c r="B9" s="23">
+        <v>3</v>
+      </c>
+      <c r="C9" s="23" t="inlineStr">
+        <is>
+          <t>BI2024013001</t>
+        </is>
+      </c>
+      <c r="D9" s="23" t="inlineStr">
+        <is>
+          <t>其他业务</t>
+        </is>
+      </c>
+      <c r="E9" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F9" s="23">
+        <v>1</v>
+      </c>
+      <c r="G9" s="38" t="inlineStr">
+        <is>
+          <t>审核业务</t>
+        </is>
+      </c>
+      <c r="H9" s="39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I9" s="23" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="J9" s="48" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K9" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="23"/>
+      <c r="A10" s="23" t="inlineStr">
+        <is>
+          <t>黄礼闯</t>
+        </is>
+      </c>
+      <c r="B10" s="23">
+        <v>4</v>
+      </c>
+      <c r="C10" s="23" t="inlineStr">
+        <is>
+          <t>N2024020103</t>
+        </is>
+      </c>
+      <c r="D10" s="23" t="inlineStr">
+        <is>
+          <t>其他业务</t>
+        </is>
+      </c>
+      <c r="E10" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F10" s="23">
+        <v>1</v>
+      </c>
+      <c r="G10" s="38" t="inlineStr">
+        <is>
+          <t>筛选主动脉-下腔静脉瘘ACF模型 DEGs 并功能分析</t>
+        </is>
+      </c>
+      <c r="H10" s="39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I10" s="23" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="J10" s="48" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K10" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="A11" s="23" t="inlineStr">
+        <is>
+          <t>黄礼闯</t>
+        </is>
+      </c>
+      <c r="B11" s="23">
+        <v>5</v>
+      </c>
+      <c r="C11" s="23" t="inlineStr">
+        <is>
+          <t>N2024012602</t>
+        </is>
+      </c>
+      <c r="D11" s="23" t="inlineStr">
+        <is>
+          <t>其他业务</t>
+        </is>
+      </c>
+      <c r="E11" s="37" t="inlineStr">
+        <is>
+          <t>1.5-2分</t>
+        </is>
+      </c>
+      <c r="F11" s="23">
+        <v>1</v>
+      </c>
+      <c r="G11" s="38" t="inlineStr">
+        <is>
+          <t>Hydroxysafflor Yellow A 与Piezo1对接</t>
+        </is>
+      </c>
+      <c r="H11" s="39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I11" s="23" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="J11" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K11" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="23"/>
+      <c r="A12" s="23" t="inlineStr">
+        <is>
+          <t>黄礼闯</t>
+        </is>
+      </c>
+      <c r="B12" s="23">
+        <v>6</v>
+      </c>
+      <c r="C12" s="23" t="inlineStr">
+        <is>
+          <t>N2024010303</t>
+        </is>
+      </c>
+      <c r="D12" s="23" t="inlineStr">
+        <is>
+          <t>其他业务</t>
+        </is>
+      </c>
+      <c r="E12" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F12" s="23">
+        <v>1</v>
+      </c>
+      <c r="G12" s="38" t="inlineStr">
+        <is>
+          <t>分子对接 Celogenamide A（环状肽）蛋白 SSTR2</t>
+        </is>
+      </c>
+      <c r="H12" s="39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I12" s="23" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="J12" s="48" t="inlineStr">
+        <is>
+          <t>(1) 分子对接肽与蛋白</t>
+        </is>
+      </c>
+      <c r="K12" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="23"/>
+      <c r="A13" s="23" t="inlineStr">
+        <is>
+          <t>黄礼闯</t>
+        </is>
+      </c>
+      <c r="B13" s="23">
+        <v>7</v>
+      </c>
+      <c r="C13" s="23" t="inlineStr">
+        <is>
+          <t>20231012</t>
+        </is>
+      </c>
+      <c r="D13" s="23" t="inlineStr">
+        <is>
+          <t>其他业务</t>
+        </is>
+      </c>
+      <c r="E13" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F13" s="23">
+        <v>1</v>
+      </c>
+      <c r="G13" s="38" t="inlineStr">
+        <is>
+          <t>建立风险模型和作图</t>
+        </is>
+      </c>
+      <c r="H13" s="39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I13" s="23" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="J13" s="48" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K13" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="23"/>
@@ -2483,23 +2723,23 @@
         <v>31</v>
       </c>
       <c r="F29" s="43">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G29" s="26" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="H29" s="26">
-        <v>0.1</v>
+      <c r="H29" s="26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I29" s="51" t="inlineStr">
         <is>
-          <t>0.1=0.1</t>
-        </is>
-      </c>
-      <c r="J29" s="26">
-        <v>0.1</v>
+          <t>NA+0.1+NA+NA+NA+NA+NA=NA</t>
+        </is>
+      </c>
+      <c r="J29" s="26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K29" s="52"/>
     </row>

--- a/lixiao/summary_2024-2/assess_绩效+软性考核表.xlsx
+++ b/lixiao/summary_2024-2/assess_绩效+软性考核表.xlsx
@@ -2071,7 +2071,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr/>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="C7" s="23" t="inlineStr">
         <is>
-          <t>黎文华订单</t>
+          <t>414731942</t>
         </is>
       </c>
       <c r="D7" s="23" t="inlineStr">
@@ -2219,10 +2219,26 @@
           <t/>
         </is>
       </c>
-      <c r="K7" s="23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="K7" s="23">
+        <v>0.142</v>
+      </c>
+      <c r="L7">
+        <v>852</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2275,6 +2291,34 @@
       <c r="K8" s="23">
         <v>0.1</v>
       </c>
+      <c r="L8">
+        <v>600</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="23" t="inlineStr">
@@ -2323,10 +2367,26 @@
           <t/>
         </is>
       </c>
-      <c r="K9" s="23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="K9" s="23">
+        <v>0.008</v>
+      </c>
+      <c r="L9">
+        <v>50</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2376,10 +2436,26 @@
           <t/>
         </is>
       </c>
-      <c r="K10" s="23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="K10" s="23">
+        <v>0.086</v>
+      </c>
+      <c r="L10">
+        <v>516</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2429,10 +2505,26 @@
           <t/>
         </is>
       </c>
-      <c r="K11" s="23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="K11" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="L11">
+        <v>180</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2479,13 +2571,29 @@
       </c>
       <c r="J12" s="48" t="inlineStr">
         <is>
-          <t>(1) 分子对接肽与蛋白</t>
-        </is>
-      </c>
-      <c r="K12" s="23" t="inlineStr">
-        <is>
           <t/>
         </is>
+      </c>
+      <c r="K12" s="23">
+        <v>0.086</v>
+      </c>
+      <c r="L12">
+        <v>516</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2535,37 +2643,165 @@
           <t/>
         </is>
       </c>
-      <c r="K13" s="23" t="inlineStr">
+      <c r="K13" s="23">
+        <v>0.086</v>
+      </c>
+      <c r="L13">
+        <v>516</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="23" t="inlineStr">
+        <is>
+          <t>黄礼闯</t>
+        </is>
+      </c>
+      <c r="B14" s="23">
+        <v>8</v>
+      </c>
+      <c r="C14" s="23" t="inlineStr">
+        <is>
+          <t>20230815</t>
+        </is>
+      </c>
+      <c r="D14" s="23" t="inlineStr">
+        <is>
+          <t>其他业务</t>
+        </is>
+      </c>
+      <c r="E14" s="37" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
+      <c r="F14" s="23">
+        <v>1</v>
+      </c>
+      <c r="G14" s="38" t="inlineStr">
+        <is>
+          <t>列线图模型建立与验证</t>
+        </is>
+      </c>
+      <c r="H14" s="39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I14" s="23" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="J14" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K14" s="23">
+        <v>0.058</v>
+      </c>
+      <c r="L14">
+        <v>348</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="23"/>
+      <c r="A15" s="23" t="inlineStr">
+        <is>
+          <t>黄礼闯</t>
+        </is>
+      </c>
+      <c r="B15" s="23">
+        <v>9</v>
+      </c>
+      <c r="C15" s="23" t="inlineStr">
+        <is>
+          <t>N2024022202</t>
+        </is>
+      </c>
+      <c r="D15" s="23" t="inlineStr">
+        <is>
+          <t>其他业务</t>
+        </is>
+      </c>
+      <c r="E15" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F15" s="23">
+        <v>1</v>
+      </c>
+      <c r="G15" s="38" t="inlineStr">
+        <is>
+          <t>乙肝病毒HBx利用泛素化系统降解XXX上调YYY诱导肝癌线粒体自噬</t>
+        </is>
+      </c>
+      <c r="H15" s="39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I15" s="23" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="J15" s="48" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K15" s="23">
+        <v>0.114</v>
+      </c>
+      <c r="L15">
+        <v>684</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="23"/>
@@ -2723,23 +2959,23 @@
         <v>31</v>
       </c>
       <c r="F29" s="43">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G29" s="26" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="H29" s="26" t="e">
-        <v>#N/A</v>
+      <c r="H29" s="26">
+        <v>0.71</v>
       </c>
       <c r="I29" s="51" t="inlineStr">
         <is>
-          <t>NA+0.1+NA+NA+NA+NA+NA=NA</t>
-        </is>
-      </c>
-      <c r="J29" s="26" t="e">
-        <v>#N/A</v>
+          <t>0.142+0.1+0.008+0.086+0.03+0.086+0.086+0.058+0.114=0.71</t>
+        </is>
+      </c>
+      <c r="J29" s="26">
+        <v>0.71</v>
       </c>
       <c r="K29" s="52"/>
     </row>

--- a/lixiao/summary_2024-2/assess_绩效+软性考核表.xlsx
+++ b/lixiao/summary_2024-2/assess_绩效+软性考核表.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>绩效考核汇总</t>
   </si>
   <si>
-    <t>2023年 10月 01日至2023年 10月 31日</t>
+    <t>2024年 2月 01日至2024年 2月 29日</t>
   </si>
   <si>
     <t>编辑</t>
@@ -61,22 +61,82 @@
     <t>黄礼闯</t>
   </si>
   <si>
-    <t>夏国连生信支持</t>
-  </si>
-  <si>
-    <t>固定业务</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>筛选丹参酮治疗脓毒症的关键差异表达基因及相关信号通路</t>
+    <t>414731942</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>菌群+对应代谢产物介导+机制研究</t>
   </si>
   <si>
     <t>完成</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>N2023121805</t>
+  </si>
+  <si>
+    <t>其他业务</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>网络药理学+Mandenol与piezo1分子对接</t>
+  </si>
+  <si>
+    <t>BI2024013001</t>
+  </si>
+  <si>
+    <t>审核业务</t>
+  </si>
+  <si>
+    <t>N2024020103</t>
+  </si>
+  <si>
+    <t>筛选主动脉-下腔静脉瘘ACF模型 DEGs 并功能分析</t>
+  </si>
+  <si>
+    <t>N2024012602</t>
+  </si>
+  <si>
+    <t>1.5-2分</t>
+  </si>
+  <si>
+    <t>Hydroxysafflor Yellow A 与Piezo1对接</t>
+  </si>
+  <si>
+    <t>N2024010303</t>
+  </si>
+  <si>
+    <t>分子对接 Celogenamide A（环状肽）蛋白 SSTR2</t>
+  </si>
+  <si>
+    <t>20231012</t>
+  </si>
+  <si>
+    <t>建立风险模型和作图</t>
+  </si>
+  <si>
+    <t>20230815</t>
+  </si>
+  <si>
+    <t>列线图模型建立与验证</t>
+  </si>
+  <si>
+    <t>N2024022202</t>
+  </si>
+  <si>
+    <t>乙肝病毒HBx利用泛素化系统降解XXX上调YYY诱导肝癌线粒体自噬</t>
+  </si>
+  <si>
+    <t>ScRNA-seq 基本分析</t>
+  </si>
+  <si>
+    <t>ScRNA-seq 癌细胞鉴定</t>
+  </si>
+  <si>
+    <t>Prologue and Get-start</t>
   </si>
   <si>
     <t>汇总表</t>
@@ -174,13 +234,7 @@
     </r>
   </si>
   <si>
-    <t>0.25*4+X=1.1</t>
-  </si>
-  <si>
-    <t>其他业务</t>
-  </si>
-  <si>
-    <t>a+b+c=d</t>
+    <t>0.142+0.1+0.008+0.086+0.03+0.086+0.086+0.058+0.114+0.6=1.31</t>
   </si>
   <si>
     <t>填表说明</t>
@@ -765,10 +819,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -849,6 +903,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -857,9 +926,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,57 +973,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,7 +996,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -969,17 +1010,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -990,6 +1036,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1065,7 +1119,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,13 +1167,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,37 +1251,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,91 +1269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,6 +1282,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,10 +1379,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1364,24 +1416,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1405,137 +1439,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1544,29 +1598,29 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1681,6 +1735,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1706,6 +1761,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1719,8 +1777,8 @@
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 14 2 2" xfId="1"/>
-    <cellStyle name="常规 2 2 2 2" xfId="2"/>
+    <cellStyle name="常规 2 2 2 2" xfId="1"/>
+    <cellStyle name="常规 14 2 2" xfId="2"/>
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
@@ -2073,8 +2131,8 @@
   <sheetPr/>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2172,7 +2230,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:17">
       <c r="A7" s="23" t="inlineStr">
         <is>
           <t>黄礼闯</t>
@@ -2214,7 +2272,7 @@
           <t>完成</t>
         </is>
       </c>
-      <c r="J7" s="48" t="inlineStr">
+      <c r="J7" s="49" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2241,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:17">
       <c r="A8" s="23" t="inlineStr">
         <is>
           <t>黄礼闯</t>
@@ -2320,7 +2378,7 @@
         </is>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:17">
       <c r="A9" s="23" t="inlineStr">
         <is>
           <t>黄礼闯</t>
@@ -2362,7 +2420,7 @@
           <t>完成</t>
         </is>
       </c>
-      <c r="J9" s="48" t="inlineStr">
+      <c r="J9" s="49" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2389,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:17">
       <c r="A10" s="23" t="inlineStr">
         <is>
           <t>黄礼闯</t>
@@ -2431,7 +2489,7 @@
           <t>完成</t>
         </is>
       </c>
-      <c r="J10" s="48" t="inlineStr">
+      <c r="J10" s="49" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2458,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:17">
       <c r="A11" s="23" t="inlineStr">
         <is>
           <t>黄礼闯</t>
@@ -2527,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:17">
       <c r="A12" s="23" t="inlineStr">
         <is>
           <t>黄礼闯</t>
@@ -2569,7 +2627,7 @@
           <t>完成</t>
         </is>
       </c>
-      <c r="J12" s="48" t="inlineStr">
+      <c r="J12" s="49" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2596,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:17">
       <c r="A13" s="23" t="inlineStr">
         <is>
           <t>黄礼闯</t>
@@ -2638,7 +2696,7 @@
           <t>完成</t>
         </is>
       </c>
-      <c r="J13" s="48" t="inlineStr">
+      <c r="J13" s="49" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2665,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:17">
       <c r="A14" s="23" t="inlineStr">
         <is>
           <t>黄礼闯</t>
@@ -2734,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:17">
       <c r="A15" s="23" t="inlineStr">
         <is>
           <t>黄礼闯</t>
@@ -2776,7 +2834,7 @@
           <t>完成</t>
         </is>
       </c>
-      <c r="J15" s="48" t="inlineStr">
+      <c r="J15" s="49" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2804,43 +2862,211 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="23"/>
+      <c r="A16" s="23" t="inlineStr">
+        <is>
+          <t>黄礼闯</t>
+        </is>
+      </c>
+      <c r="B16" s="23">
+        <v>10</v>
+      </c>
+      <c r="C16" s="23" t="inlineStr">
+        <is>
+          <t>workflow</t>
+        </is>
+      </c>
+      <c r="D16" s="23" t="inlineStr">
+        <is>
+          <t>其他业务</t>
+        </is>
+      </c>
+      <c r="E16" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F16" s="23">
+        <v>1</v>
+      </c>
+      <c r="G16" s="40" t="inlineStr">
+        <is>
+          <t>Step 系列：scRNA-seq 基本分析</t>
+        </is>
+      </c>
+      <c r="H16" s="39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I16" s="23" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="J16" s="49" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K16" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="L16">
+        <v>600</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="A17" s="23" t="inlineStr">
+        <is>
+          <t>黄礼闯</t>
+        </is>
+      </c>
+      <c r="B17" s="23">
+        <v>11</v>
+      </c>
+      <c r="C17" s="23" t="inlineStr">
+        <is>
+          <t>workflow</t>
+        </is>
+      </c>
+      <c r="D17" s="23" t="inlineStr">
+        <is>
+          <t>其他业务</t>
+        </is>
+      </c>
+      <c r="E17" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F17" s="23">
+        <v>1</v>
+      </c>
+      <c r="G17" s="40" t="inlineStr">
+        <is>
+          <t>Step 系列：Prologue and Get-start</t>
+        </is>
+      </c>
+      <c r="H17" s="39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I17" s="23" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="J17" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K17" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="L17">
+        <v>1800</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="23"/>
+      <c r="A18" s="23" t="inlineStr">
+        <is>
+          <t>黄礼闯</t>
+        </is>
+      </c>
+      <c r="B18" s="23">
+        <v>12</v>
+      </c>
+      <c r="C18" s="23" t="inlineStr">
+        <is>
+          <t>workflow</t>
+        </is>
+      </c>
+      <c r="D18" s="23" t="inlineStr">
+        <is>
+          <t>其他业务</t>
+        </is>
+      </c>
+      <c r="E18" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F18" s="23">
+        <v>1</v>
+      </c>
+      <c r="G18" s="40" t="inlineStr">
+        <is>
+          <t>Step 系列：scRNA-seq 癌细胞鉴定</t>
+        </is>
+      </c>
+      <c r="H18" s="39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I18" s="23" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="J18" s="49" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K18" s="50">
+        <v>0.2</v>
+      </c>
+      <c r="L18">
+        <v>1200</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="23"/>
@@ -2852,7 +3078,7 @@
       <c r="G19" s="38"/>
       <c r="H19" s="39"/>
       <c r="I19" s="23"/>
-      <c r="J19" s="48"/>
+      <c r="J19" s="49"/>
       <c r="K19" s="23"/>
     </row>
     <row r="20" spans="1:11">
@@ -2878,7 +3104,7 @@
       <c r="G21" s="38"/>
       <c r="H21" s="39"/>
       <c r="I21" s="23"/>
-      <c r="J21" s="48"/>
+      <c r="J21" s="49"/>
       <c r="K21" s="23"/>
     </row>
     <row r="22" spans="1:11">
@@ -2891,7 +3117,7 @@
       <c r="G22" s="38"/>
       <c r="H22" s="39"/>
       <c r="I22" s="23"/>
-      <c r="J22" s="48"/>
+      <c r="J22" s="49"/>
       <c r="K22" s="23"/>
     </row>
     <row r="23" spans="1:11">
@@ -2917,49 +3143,49 @@
       <c r="G24" s="38"/>
       <c r="H24" s="39"/>
       <c r="I24" s="23"/>
-      <c r="J24" s="48"/>
+      <c r="J24" s="49"/>
       <c r="K24" s="23"/>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="4:11">
       <c r="D28" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>43</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="41" t="s">
-        <v>25</v>
+        <v>44</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="50" t="s">
-        <v>29</v>
+        <v>46</v>
+      </c>
+      <c r="I28" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="52" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="4:11">
       <c r="D29" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="43">
-        <v>9</v>
+        <v>50</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="44">
+        <v>0</v>
       </c>
       <c r="G29" s="26" t="inlineStr">
         <is>
@@ -2967,76 +3193,86 @@
         </is>
       </c>
       <c r="H29" s="26">
-        <v>0.71</v>
-      </c>
-      <c r="I29" s="51" t="inlineStr">
-        <is>
-          <t>0.142+0.1+0.008+0.086+0.03+0.086+0.086+0.058+0.114=0.71</t>
+        <v>0</v>
+      </c>
+      <c r="I29" s="53" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="J29" s="26">
-        <v>0.71</v>
-      </c>
-      <c r="K29" s="52"/>
+        <v>1.31</v>
+      </c>
+      <c r="K29" s="54"/>
     </row>
     <row r="30" spans="4:11">
       <c r="D30" s="26"/>
-      <c r="E30" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="51" t="s">
-        <v>34</v>
+      <c r="E30" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="44">
+        <v>12</v>
+      </c>
+      <c r="G30" s="26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H30" s="26">
+        <v>1.31</v>
+      </c>
+      <c r="I30" s="53" t="inlineStr">
+        <is>
+          <t>0.142+0.1+0.008+0.086+0.03+0.086+0.086+0.058+0.114+0.1+0.3+0.2=1.31</t>
+        </is>
       </c>
       <c r="J30" s="26"/>
-      <c r="K30" s="52"/>
+      <c r="K30" s="54"/>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="27" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="28" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
-      <c r="E36" s="45"/>
+      <c r="E36" s="46"/>
     </row>
     <row ht="15.75" r="37" spans="1:7">
       <c r="A37" s="29" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
-      <c r="E37" s="46"/>
+      <c r="E37" s="47"/>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
     </row>
     <row ht="15.75" r="38" spans="1:7">
       <c r="A38" s="29" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
-      <c r="E38" s="46"/>
+      <c r="E38" s="47"/>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="30" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
       <c r="D39" s="31"/>
-      <c r="E39" s="47"/>
+      <c r="E39" s="48"/>
       <c r="F39" s="31"/>
       <c r="G39" s="31"/>
     </row>
@@ -3083,7 +3319,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3127,7 +3363,7 @@
     </row>
     <row ht="23.25" r="3" spans="1:19">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3150,11 +3386,11 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -3165,33 +3401,33 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="11" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row customHeight="1" ht="28.5" r="6" spans="1:19">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -3216,16 +3452,16 @@
         <v>0.01</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -3253,16 +3489,16 @@
         <v>0.01</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -3290,16 +3526,16 @@
         <v>0.01</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="R8" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="S8" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -3327,22 +3563,22 @@
         <v>0.01</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="R9" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="S9" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="10" spans="1:19">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -3366,21 +3602,21 @@
         <v>0.01</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="R10" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="S10" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="4" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3405,21 +3641,21 @@
         <v>0.05</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="S11" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -3444,16 +3680,16 @@
         <v>0.95</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="S12" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
